--- a/The Defi nitive Guide to the/基础.xlsx
+++ b/The Defi nitive Guide to the/基础.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE55016-EF18-457F-BE2A-9003BF785BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD78CB8-34E0-4058-9B3B-D5C2A683E220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器组" sheetId="1" r:id="rId1"/>
     <sheet name="操作模式" sheetId="2" r:id="rId2"/>
     <sheet name="异常和中断" sheetId="3" r:id="rId3"/>
+    <sheet name="复位序列" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>寄存器组</t>
   </si>
@@ -482,12 +483,89 @@
     <t>在复位后，该寄存器的值为0，因此，在地址0处必须包含一张向量表，用于初始时的异常分配。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>离开复位状态后，CM3做的第一件事是读取两个32位整数的值：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.从地址0x0000 0000处取出MSP的初始值；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.从地址0x0000 0004处取出PC的初始值——这个值是复位向量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为CM3是在Thumb状态下执行，所以向量表中的每一个数值都必须把LSB置1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+闪存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个入栈的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个入栈的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000 0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000 0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000 7C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000 7FF8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000 7FFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000 8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为CM3 使用的是向下生长的满栈，所以MSP的初始值必须是堆栈内存的末地址加 1。 举例来说，如果你的堆栈区域在 0x20007C00‐0x20007FFF 之间，那么 MSP 的初始值就必须是0x20008000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为 CM3 是在 Thumb态下执行，所以向量表中的每个数值都必须把 LSB 置 1（也就是奇数）。所以使用 0x101 来表达地址 0x100。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何设置MSP初值和复位向量？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,8 +597,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,8 +684,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -795,11 +898,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,6 +954,78 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -851,15 +1041,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -869,213 +1053,183 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2803,6 +2957,953 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92DF145-0B26-4D55-ABF6-A6709E011D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="4191000"/>
+          <a:ext cx="1295400" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>启动引导代码</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C98FE40-B617-46C4-8211-8F14A3D45C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="5076825"/>
+          <a:ext cx="1295400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F415F472-19E9-451E-9B05-3E7B468E05CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="4886325"/>
+          <a:ext cx="1295400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777F2A7B-437A-44F7-8F83-DFCF8C5CC1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="4524375"/>
+          <a:ext cx="1295400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0225B765-EFE8-4C9C-9A91-03F4F111D1CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="4352925"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BF5F14-BC27-4D30-A52E-F5FAF435E3C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="4543425"/>
+          <a:ext cx="1031051" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其它异常向量</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="921086" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2125127-1E99-463B-A065-E607EECC0405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="4848225"/>
+          <a:ext cx="921086" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x0000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> 0101</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="921086" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A1E223-76B6-44F7-B40D-F0169BE08426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="5029200"/>
+          <a:ext cx="921086" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x2000 8000</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86328D56-5F0D-4CA0-9062-CF5F4C604225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="5010150"/>
+          <a:ext cx="276225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16C7C4F-4B7E-477D-91B2-E17CF862C7CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2790825" y="4362450"/>
+          <a:ext cx="9525" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA1E873-D911-43AB-BE75-5903A5F19F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2524125" y="4352925"/>
+          <a:ext cx="276225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="561975" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="文本框 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75359FC-FE1A-43B3-A52D-9486C80C269A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838449" y="4486275"/>
+          <a:ext cx="561975" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ResetVector</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC6A31E-1DE6-42C8-80A6-B3957941E19F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2533650" y="5172075"/>
+          <a:ext cx="1809750" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59CB9C9-55B9-4F58-A16A-0D8BA383DE99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4343400" y="1752600"/>
+          <a:ext cx="0" cy="3409950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1028701" cy="455638"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545F629F-F261-4706-B663-14CD119B3836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943224" y="1495425"/>
+          <a:ext cx="1028701" cy="455638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MSP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的初始值 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x200 8000</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A8F688-B312-490E-968D-865F870FF61D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3895725" y="1762125"/>
+          <a:ext cx="447675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接箭头连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5560E67-A5FB-4DCC-9DB3-CB7CD8332048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2524125" y="1724025"/>
+          <a:ext cx="447675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3091,134 +4192,134 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="28"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="24"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="28"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="28"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="28"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="28"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="21"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
@@ -3227,15 +4328,15 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
@@ -3244,46 +4345,46 @@
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -3291,21 +4392,21 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -3314,123 +4415,112 @@
       <c r="D27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="16"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="15" t="s">
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="14" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15" t="s">
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="21"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="14" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="H30:M31"/>
@@ -3444,6 +4534,17 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,268 +4556,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910E764-E1F8-4A75-983E-0697263ED214}">
   <dimension ref="A2:M25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="51"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="71"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="71"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="72"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="49"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="73"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="74"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="75"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="76"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="76"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="76"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="77"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="47"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="47"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="K10:K12"/>
@@ -3731,19 +4844,7 @@
     <mergeCell ref="G10:J12"/>
     <mergeCell ref="G13:J15"/>
     <mergeCell ref="G16:J18"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3756,101 +4857,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7F8DB6-256F-40DC-A734-2D86BEDAF1AF}">
   <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="85" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="88" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="89"/>
+      <c r="L6" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3858,52 +4959,47 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:G9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="E15:M15"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:O6"/>
@@ -3913,8 +5009,279 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B8:G9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="E15:M15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765BB5F9-1B62-4D03-9D0B-669E4F7FCBB3}">
+  <dimension ref="A4:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="G9" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="99"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="99"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="101"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="G28" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="G9:Q10"/>
+    <mergeCell ref="G28:Q29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>